--- a/design/BLDC4.12_BOM_low_power.xlsx
+++ b/design/BLDC4.12_BOM_low_power.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Schandi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\mist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889590AF-82F7-4962-985B-8A16FE359049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99F45ED-D6E8-438F-AF24-616AB56F5F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,10 +767,10 @@
     <t>Shunt 25mOhm</t>
   </si>
   <si>
-    <t>https://www.mouser.at/ProductDetail/Bourns/CRK0612-FZ-R001E?qs=sGAEpiMZZMve4%2FbfQkoj%2BPKLYQ0nYId3Mk8Ugs%2BoqlU=</t>
-  </si>
-  <si>
-    <t>652-CRK0612-FZ-R001E</t>
+    <t>660-WU732B15TTD25L0F</t>
+  </si>
+  <si>
+    <t>https://www.mouser.at/ProductDetail/KOA-Speer/WU732B15TTD25L0F?qs=sGAEpiMZZMtlleCFQhR%2FzXAGiOCRCr1IoF0bBO2jGGre9%2Flu69zWHQ%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1483,7 +1483,7 @@
         <v>35</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J9" s="1">
         <v>0.53</v>
@@ -1493,7 +1493,7 @@
         <v>1.06</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3032,7 +3032,7 @@
     <hyperlink ref="L59" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="L6" r:id="rId65" xr:uid="{9A6B632C-908D-47DB-A980-63CF52C986BF}"/>
     <hyperlink ref="L8" r:id="rId66" xr:uid="{72F75878-9EE4-497D-B8DC-05EC53101BC5}"/>
-    <hyperlink ref="L9" r:id="rId67" xr:uid="{0EDB35C6-07E9-46BE-90A1-B5445061F61D}"/>
+    <hyperlink ref="L9" r:id="rId67" xr:uid="{4830AD18-376A-4B9D-B8AA-FAA0CA1EEFF6}"/>
   </hyperlinks>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
